--- a/output/StructureDefinition-oncology-kenya-medicationrequest.xlsx
+++ b/output/StructureDefinition-oncology-kenya-medicationrequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Oncology Kenya MedicationRequest</t>
+    <t>Oncology Medication Request Kenya</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T13:49:52+03:00</t>
+    <t>2025-06-30T18:02:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Oncology-specific medication request profile for Kenya, integrating with SHA, DHIS2, and Oncology Dispensing Tool (ODT).</t>
+    <t>A profile for prescribing cancer-related medications in Kenya. Aligned with the Kenya National Cancer Control Strategy (2023–2027), Cancer Policy (2020–2030), and reporting needs of KEMRI and county cancer registries. Supports chemotherapy, palliative care, and anti-cancer drugs with ICD-10 and Kenya EMR terminology support.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -432,38 +432,75 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:county</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/medicationrequest-prescribed-county}
+</t>
+  </si>
+  <si>
+    <t>County Where Medication Was Prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:reportToRegistry</t>
+  </si>
+  <si>
+    <t>reportToRegistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/medicationrequest-registry-flag}
+</t>
+  </si>
+  <si>
+    <t>Flag for Reporting Medication Request to National Registry</t>
+  </si>
+  <si>
+    <t>MedicationRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -610,10 +647,7 @@
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
   </si>
   <si>
-    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>https://www.kemri.go.ke/fhir/ValueSet/oncology-medication-category</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -688,10 +722,6 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
-  </si>
-  <si>
     <t>Medication to be taken</t>
   </si>
   <si>
@@ -704,7 +734,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://who.org/essential-medicines</t>
+    <t>http://id.who.int/icd10</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -932,12 +962,6 @@
     <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonReference.</t>
   </si>
   <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
     <t>Request.reasonCode</t>
   </si>
   <si>
@@ -1124,7 +1148,26 @@
     <t>see dosageInstruction mapping</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.id</t>
+    <t>MedicationRequest.dispenseRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Medication supply authorization</t>
+  </si>
+  <si>
+    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
+  </si>
+  <si>
+    <t>component.supplyEvent</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -1143,26 +1186,19 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.extension</t>
+    <t>MedicationRequest.dispenseRequest.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.modifierExtension</t>
+    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -1179,621 +1215,204 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
+    <t>MedicationRequest.dispenseRequest.initialFill</t>
+  </si>
+  <si>
+    <t>First fill details</t>
+  </si>
+  <si>
+    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
+  </si>
+  <si>
+    <t>If populating this element, either the quantity or the duration must be included.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration -&gt; ActRelationship[sequenceNumber = '1'] -&gt; Supply</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>The order of the dosage instructions</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
-  </si>
-  <si>
-    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>TQ1-1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.text</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
-  </si>
-  <si>
-    <t>Dosage.text</t>
-  </si>
-  <si>
-    <t>RXO-6; RXE-21</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"</t>
-  </si>
-  <si>
-    <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
-  </si>
-  <si>
-    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
-  </si>
-  <si>
-    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t>Dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>RXO-7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>Dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timing
+    <t>First fill quantity</t>
+  </si>
+  <si>
+    <t>The amount or quantity to provide as part of the first dispense.</t>
+  </si>
+  <si>
+    <t>Supply.quantity[moodCode=RQO]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
 </t>
   </si>
   <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
-    <t>When medication should be administered.</t>
-  </si>
-  <si>
-    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
+    <t>First fill duration</t>
+  </si>
+  <si>
+    <t>The length of time that the first dispense is expected to last.</t>
+  </si>
+  <si>
+    <t>Supply.effectivetime[moodCode=RQO]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.dispenseInterval</t>
+  </si>
+  <si>
+    <t>Minimum period of time between dispenses</t>
+  </si>
+  <si>
+    <t>The minimum period of time that must occur between dispenses of the medication.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.validityPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period supply is authorized for</t>
+  </si>
+  <si>
+    <t>This indicates the validity period of a prescription (stale dating the Prescription).</t>
+  </si>
+  <si>
+    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Number of refills authorized</t>
+  </si>
+  <si>
+    <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.  A prescriber may explicitly say that zero refills are permitted after the initial dispense.</t>
+  </si>
+  <si>
+    <t>If displaying "number of authorized fills", add 1 to this number.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
+  </si>
+  <si>
+    <t>repeatNumber</t>
+  </si>
+  <si>
+    <t>RXE-12-Number of Refills</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.quantity</t>
+  </si>
+  <si>
+    <t>Amount of medication to supply per dispense</t>
+  </si>
+  <si>
+    <t>The amount that is to be dispensed for one fill.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
+  </si>
+  <si>
+    <t>Number of days supply per dispense</t>
+  </si>
+  <si>
+    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
+  </si>
+  <si>
+    <t>In some situations, this attribute may be used instead of quantity to identify the amount supplied by how long it is expected to last, rather than the physical quantity issued, e.g. 90 days supply of medication (based on an ordered dosage). When possible, it is always better to specify quantity, as this tends to be more precise. expectedSupplyDuration will always be an estimate that can be influenced by external factors.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
+  </si>
+  <si>
+    <t>expectedUseTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Intended dispenser</t>
+  </si>
+  <si>
+    <t>Indicates the intended dispensing Organization specified by the prescriber.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution</t>
+  </si>
+  <si>
+    <t>Any restrictions on medication substitution</t>
+  </si>
+  <si>
+    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
+  </si>
+  <si>
+    <t>specific values within Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
+  </si>
+  <si>
+    <t>subjectOf.substitutionPersmission</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]</t>
   </si>
   <si>
     <t>boolean
 CodeableConcept</t>
   </si>
   <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>TQ1-9</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element
-</t>
-  </si>
-  <si>
-    <t>Amount of medication administered</t>
-  </si>
-  <si>
-    <t>The amount of medication administered.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t>TQ1-2</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
-  </si>
-  <si>
-    <t>If the type is not populated, assume to be "ordered".</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>RXO-21; RXE-23</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>RXO-2, RXE-3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.--It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
-  </si>
-  <si>
-    <t>RXE22, RXE23, RXE-24</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>RXO-23, RXE-19</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Medication supply authorization</t>
-  </si>
-  <si>
-    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
-  </si>
-  <si>
-    <t>component.supplyEvent</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill</t>
-  </si>
-  <si>
-    <t>First fill details</t>
-  </si>
-  <si>
-    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
-  </si>
-  <si>
-    <t>If populating this element, either the quantity or the duration must be included.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration -&gt; ActRelationship[sequenceNumber = '1'] -&gt; Supply</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
-  </si>
-  <si>
-    <t>First fill quantity</t>
-  </si>
-  <si>
-    <t>The amount or quantity to provide as part of the first dispense.</t>
-  </si>
-  <si>
-    <t>Supply.quantity[moodCode=RQO]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
-</t>
-  </si>
-  <si>
-    <t>First fill duration</t>
-  </si>
-  <si>
-    <t>The length of time that the first dispense is expected to last.</t>
-  </si>
-  <si>
-    <t>Supply.effectivetime[moodCode=RQO]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.dispenseInterval</t>
-  </si>
-  <si>
-    <t>Minimum period of time between dispenses</t>
-  </si>
-  <si>
-    <t>The minimum period of time that must occur between dispenses of the medication.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period supply is authorized for</t>
-  </si>
-  <si>
-    <t>This indicates the validity period of a prescription (stale dating the Prescription).</t>
-  </si>
-  <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>Number of refills authorized</t>
-  </si>
-  <si>
-    <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.  A prescriber may explicitly say that zero refills are permitted after the initial dispense.</t>
-  </si>
-  <si>
-    <t>If displaying "number of authorized fills", add 1 to this number.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
-  </si>
-  <si>
-    <t>repeatNumber</t>
-  </si>
-  <si>
-    <t>RXE-12-Number of Refills</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.quantity</t>
-  </si>
-  <si>
-    <t>Amount of medication to supply per dispense</t>
-  </si>
-  <si>
-    <t>The amount that is to be dispensed for one fill.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
-  </si>
-  <si>
-    <t>Number of days supply per dispense</t>
-  </si>
-  <si>
-    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
-  </si>
-  <si>
-    <t>In some situations, this attribute may be used instead of quantity to identify the amount supplied by how long it is expected to last, rather than the physical quantity issued, e.g. 90 days supply of medication (based on an ordered dosage). When possible, it is always better to specify quantity, as this tends to be more precise. expectedSupplyDuration will always be an estimate that can be influenced by external factors.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
-  </si>
-  <si>
-    <t>expectedUseTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Intended dispenser</t>
-  </si>
-  <si>
-    <t>Indicates the intended dispensing Organization specified by the prescriber.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution</t>
-  </si>
-  <si>
-    <t>Any restrictions on medication substitution</t>
-  </si>
-  <si>
-    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
-  </si>
-  <si>
-    <t>specific values within Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
-  </si>
-  <si>
-    <t>subjectOf.substitutionPersmission</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.allowed[x]</t>
-  </si>
-  <si>
     <t>Whether substitution is allowed or not</t>
   </si>
   <si>
@@ -1809,23 +1428,10 @@
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
     <t>RXO-9-Allow Substitutions / RXE-9-Substitution Status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.allowed[x]:allowedBoolean</t>
-  </si>
-  <si>
-    <t>allowedBoolean</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -2233,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2242,9 +1848,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.15625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2266,11 +1872,11 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="104.39453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3233,7 +2839,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3252,17 +2858,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -3299,16 +2903,14 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -3332,7 +2934,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>20</v>
@@ -3346,43 +2948,41 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -3430,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3439,7 +3039,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -3451,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>20</v>
@@ -3465,9 +3065,11 @@
         <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
@@ -3476,7 +3078,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -3488,17 +3090,15 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3547,7 +3147,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3556,67 +3156,69 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3640,13 +3242,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3667,28 +3269,28 @@
         <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3696,10 +3298,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3710,10 +3312,10 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>20</v>
@@ -3722,16 +3324,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3757,13 +3359,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -3781,13 +3383,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -3796,27 +3398,27 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3830,7 +3432,7 @@
         <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>90</v>
@@ -3842,13 +3444,13 @@
         <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3874,13 +3476,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3898,7 +3500,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
@@ -3913,16 +3515,16 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3930,10 +3532,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3944,7 +3546,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3956,16 +3558,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3991,13 +3593,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -4015,13 +3617,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -4030,16 +3632,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -4047,10 +3649,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4058,16 +3660,16 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>90</v>
@@ -4076,12 +3678,14 @@
         <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4106,13 +3710,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -4130,10 +3734,10 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>89</v>
@@ -4145,16 +3749,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -4162,10 +3766,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4176,28 +3780,28 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4223,13 +3827,11 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -4247,13 +3849,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -4265,13 +3867,13 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4279,10 +3881,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4305,13 +3907,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4338,13 +3940,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4362,7 +3964,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4377,16 +3979,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4394,10 +3996,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4405,7 +4007,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4414,22 +4016,22 @@
         <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4455,11 +4057,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4477,10 +4081,10 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
@@ -4492,27 +4096,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4520,7 +4124,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>89</v>
@@ -4535,17 +4139,15 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4594,10 +4196,10 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -4609,27 +4211,27 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4637,31 +4239,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4687,13 +4289,11 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4711,10 +4311,10 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4726,27 +4326,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4754,30 +4354,32 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4826,13 +4428,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4841,27 +4443,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4881,18 +4483,20 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4941,7 +4545,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4956,27 +4560,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4987,7 +4591,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4996,16 +4600,16 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5056,13 +4660,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -5071,16 +4675,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -5088,10 +4692,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5099,28 +4703,28 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5171,7 +4775,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5186,27 +4790,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5214,13 +4818,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -5229,17 +4833,15 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5264,13 +4866,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -5288,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5303,16 +4905,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -5320,10 +4922,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5346,13 +4948,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5403,7 +5005,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5418,16 +5020,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5435,10 +5037,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5449,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5458,19 +5060,19 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5496,13 +5098,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5520,13 +5122,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5535,27 +5137,27 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5566,10 +5168,10 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5578,17 +5180,15 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5637,13 +5237,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5652,16 +5252,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5669,10 +5269,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5686,24 +5286,26 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5728,13 +5330,11 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5752,7 +5352,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5767,27 +5367,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5807,18 +5407,20 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5867,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5882,16 +5484,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5899,10 +5501,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5925,13 +5527,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5982,7 +5584,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5997,13 +5599,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -6014,10 +5616,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6028,7 +5630,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -6040,18 +5642,16 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -6099,13 +5699,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -6114,13 +5714,13 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -6131,10 +5731,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6145,7 +5745,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -6154,20 +5754,18 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6192,13 +5790,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6216,13 +5814,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -6231,13 +5829,13 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -6248,10 +5846,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6262,7 +5860,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -6271,19 +5869,21 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6331,13 +5931,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -6346,13 +5946,13 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6363,10 +5963,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6377,7 +5977,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6389,15 +5989,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6422,13 +6024,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6446,13 +6048,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -6461,13 +6063,13 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6478,10 +6080,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6489,13 +6091,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -6504,17 +6106,15 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6563,7 +6163,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6578,13 +6178,13 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6595,10 +6195,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6609,10 +6209,10 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6621,13 +6221,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6678,28 +6278,28 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6710,14 +6310,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6727,7 +6327,7 @@
         <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6736,16 +6336,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6783,19 +6383,19 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6807,16 +6407,16 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6827,46 +6427,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6914,28 +6510,28 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6946,10 +6542,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6969,21 +6565,19 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -7031,7 +6625,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7043,7 +6637,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -7052,32 +6646,32 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -7086,21 +6680,21 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -7148,19 +6742,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7169,25 +6763,25 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7200,25 +6794,25 @@
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>387</v>
+        <v>155</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7243,13 +6837,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7267,7 +6861,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7279,7 +6873,7 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7288,21 +6882,21 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7322,18 +6916,20 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7382,7 +6978,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7403,21 +6999,21 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7425,35 +7021,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7501,7 +7093,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7513,7 +7105,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7522,7 +7114,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7533,21 +7125,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7556,19 +7148,19 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>405</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>408</v>
+        <v>154</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7594,13 +7186,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7618,19 +7210,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7639,56 +7231,56 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>418</v>
+        <v>155</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7713,13 +7305,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7737,19 +7329,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7758,21 +7350,21 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>423</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7780,33 +7372,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7830,13 +7420,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7854,7 +7444,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7875,21 +7465,21 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>432</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7903,29 +7493,25 @@
         <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7949,13 +7535,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7973,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7994,21 +7580,21 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8019,7 +7605,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -8028,16 +7614,16 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8088,13 +7674,13 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
@@ -8109,21 +7695,21 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>448</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8146,16 +7732,20 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8203,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8215,16 +7805,16 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -8235,21 +7825,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8261,16 +7851,16 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>138</v>
+        <v>413</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8308,54 +7898,54 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8375,21 +7965,19 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>454</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8413,13 +8001,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8437,7 +8025,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8455,24 +8043,24 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8492,23 +8080,21 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8556,7 +8142,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8574,24 +8160,24 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>466</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8611,23 +8197,19 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8675,7 +8257,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8696,21 +8278,21 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>475</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8730,23 +8312,19 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>477</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8794,7 +8372,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8812,24 +8390,24 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>484</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8849,23 +8427,19 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8913,7 +8487,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>491</v>
+        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8925,7 +8499,7 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
@@ -8934,7 +8508,7 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>492</v>
+        <v>370</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -8945,21 +8519,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8968,21 +8542,21 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9030,19 +8604,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>497</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -9051,7 +8625,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>492</v>
+        <v>370</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
@@ -9062,42 +8636,46 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>499</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9145,28 +8723,28 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>503</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
@@ -9177,10 +8755,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9188,7 +8766,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>89</v>
@@ -9203,15 +8781,17 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>353</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9236,13 +8816,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9260,10 +8840,10 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -9272,41 +8852,41 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -9318,17 +8898,15 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>136</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9353,13 +8931,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9377,78 +8955,74 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>20</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9496,28 +9070,28 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>368</v>
+        <v>459</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>20</v>
+        <v>463</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>132</v>
+        <v>464</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9528,21 +9102,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9554,16 +9128,16 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9613,13 +9187,13 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
@@ -9634,7 +9208,7 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -9645,10 +9219,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9659,7 +9233,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -9671,15 +9245,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>353</v>
+        <v>473</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>354</v>
+        <v>474</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9728,2366 +9304,38 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>356</v>
+        <v>472</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>20</v>
+        <v>477</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AC79" s="2"/>
-      <c r="AD79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO84" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO84">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12097,7 +9345,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
